--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B17CA6E8-F952-4CE7-8096-B20BD77E5823}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B300EA6-4FC9-4DB7-8726-1A6BBA10DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーの仕様" sheetId="6" r:id="rId1"/>
@@ -450,6 +450,74 @@
     </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>904875</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="正方形/長方形 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{82403446-B437-00DA-9DBA-ED4F20326B11}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="876300" y="1781175"/>
+          <a:ext cx="5038725" cy="2009775"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>待機状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
 </file>
 
@@ -719,7 +787,7 @@
   <dimension ref="B2:D4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D15" sqref="D15"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -770,6 +838,27 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -1012,28 +1101,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1050,23 +1137,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,12 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B300EA6-4FC9-4DB7-8726-1A6BBA10DF19}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8FA23-E64F-4988-B73A-4FBECE0B81FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="プレイヤーの仕様" sheetId="6" r:id="rId1"/>
+    <sheet name="ステータス" sheetId="7" r:id="rId2"/>
+    <sheet name="敵" sheetId="8" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191028"/>
   <extLst>
@@ -34,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="32">
   <si>
     <t>回避</t>
     <rPh sb="0" eb="2">
@@ -128,6 +130,236 @@
     <t>項目名</t>
     <rPh sb="0" eb="3">
       <t>コウモクメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ステータス項目</t>
+    <rPh sb="5" eb="7">
+      <t>コウモク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>体力</t>
+    <rPh sb="0" eb="2">
+      <t>タイリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃力</t>
+    <rPh sb="0" eb="2">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>リョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>防御力</t>
+    <rPh sb="0" eb="3">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>移動速度</t>
+    <rPh sb="0" eb="4">
+      <t>イドウソクド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~99までの経験値テーブルが必要</t>
+    <rPh sb="7" eb="10">
+      <t>ケイケンチ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>必要なもの</t>
+    <rPh sb="0" eb="2">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダメージ計算式「Damage = max(1, (攻撃力 × 補正(バフ) - 防御力 × 補正(バフ)) × Level補正(1 + (攻撃者Lv - 防御者Lv) * 0.05))」</t>
+    <rPh sb="4" eb="7">
+      <t>ケイサンシキ</t>
+    </rPh>
+    <rPh sb="25" eb="28">
+      <t>コウゲキリョク</t>
+    </rPh>
+    <rPh sb="31" eb="33">
+      <t>ホセイ</t>
+    </rPh>
+    <rPh sb="40" eb="43">
+      <t>ボウギョリョク</t>
+    </rPh>
+    <rPh sb="46" eb="48">
+      <t>ホセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1~99</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーマー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>HPの値で0になったら死亡</t>
+    <rPh sb="3" eb="4">
+      <t>アタイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高いと受けるダメージが下がる</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ウ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>サ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>高いと与えるダメージが上がる</t>
+    <rPh sb="0" eb="1">
+      <t>タカ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>アタ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>足の速さ</t>
+    <rPh sb="0" eb="1">
+      <t>アシ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ハヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>経験値が溜まったらレベルが上がる</t>
+    <rPh sb="0" eb="3">
+      <t>ケイケンチ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="13" eb="14">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アーマーの値以下の攻撃でひるまない</t>
+    <rPh sb="5" eb="8">
+      <t>アタイイカ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウゲキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>敵の仕様</t>
+    <rPh sb="0" eb="1">
+      <t>テキ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>攻撃前に目が光る</t>
+    <rPh sb="0" eb="3">
+      <t>コウゲキマエ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>メ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヒカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雑魚はスポーンポイントで管理する</t>
+    <rPh sb="12" eb="14">
+      <t>カンリ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スポーンポイント中心からある一定距離を徘徊</t>
+    <rPh sb="8" eb="10">
+      <t>チュウシン</t>
+    </rPh>
+    <rPh sb="14" eb="18">
+      <t>イッテイキョリ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ハイカイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>同時に攻撃できる数を制限(前回のグループマネージャーの作りを使う)</t>
+    <rPh sb="0" eb="2">
+      <t>ドウジ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>コウゲキ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>カズ</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>セイゲン</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ゼンカイ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="30" eb="31">
+      <t>ツカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -152,7 +384,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -162,6 +394,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -193,10 +431,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -205,8 +444,8 @@
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <mruColors>
+      <color rgb="FFFF6600"/>
       <color rgb="FFFFD4B7"/>
-      <color rgb="FFFF6600"/>
       <color rgb="FF9933FF"/>
       <color rgb="FF33CCFF"/>
       <color rgb="FFFF3300"/>
@@ -452,16 +691,16 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>190500</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>114300</xdr:rowOff>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>638176</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>904875</xdr:colOff>
-      <xdr:row>15</xdr:row>
-      <xdr:rowOff>219075</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -476,8 +715,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="876300" y="1781175"/>
-          <a:ext cx="5038725" cy="2009775"/>
+          <a:off x="638176" y="3076575"/>
+          <a:ext cx="1771650" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -516,6 +755,1223 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848101</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="正方形/長方形 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1DA7A0B-6DBA-4F91-9495-FBAACE213B91}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8858251" y="2847975"/>
+          <a:ext cx="2828924" cy="1714500"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>攻撃状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>メイン攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>サブ攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>ジャスト回避後攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1600"/>
+            <a:t>空中攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1600"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848101</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="5" name="直線矢印コネクタ 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C1D65079-E60F-1835-9CFD-E64EB94B83AB}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409826" y="3548063"/>
+          <a:ext cx="6448425" cy="157162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2047876</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3819526</xdr:colOff>
+      <xdr:row>26</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="7" name="正方形/長方形 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{95055FC5-1D86-4159-A8D0-3052D2B026A5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7058026" y="5448300"/>
+          <a:ext cx="1771650" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>喰らい状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848101</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="8" name="直線矢印コネクタ 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D7C9EB33-651F-4BB4-8B4F-CE71A08F02E9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2409826" y="3548063"/>
+          <a:ext cx="6448425" cy="157162"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2933701</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="15" name="直線矢印コネクタ 14">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8191D425-0654-4F26-AB2B-D0FAB62D8EF3}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="7" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="7943851" y="4562475"/>
+          <a:ext cx="2328862" cy="885825"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2933701</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="18" name="直線矢印コネクタ 17">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC999DED-1318-4416-8F94-C53D723CF6B2}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="7" idx="0"/>
+          <a:endCxn id="2" idx="2"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="1524001" y="4019550"/>
+          <a:ext cx="6419850" cy="1428750"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>209550</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="22" name="直線矢印コネクタ 21">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1A270855-928E-4B27-87A0-1A7545DE169C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1524001" y="4019550"/>
+          <a:ext cx="1200150" cy="1543050"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>161926</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1933576</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="23" name="正方形/長方形 22">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A0F106BE-A946-4865-A2D2-D7BBBA6E52F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1838326" y="5562600"/>
+          <a:ext cx="1771650" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>死亡状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>1047751</xdr:colOff>
+      <xdr:row>19</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>85725</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="30" name="直線矢印コネクタ 29">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EEC69598-BDEF-42A2-BC60-2092315085E1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="2"/>
+          <a:endCxn id="23" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="2724151" y="4562475"/>
+          <a:ext cx="7548562" cy="1000125"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="59" name="正方形/長方形 58">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FB12B13A-910F-4E28-A488-661974A17631}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="3876675" y="1476375"/>
+          <a:ext cx="4019550" cy="1152525"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>回避状態</a:t>
+          </a:r>
+          <a:br>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+          </a:br>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ジャスト回避後に攻撃入力でカウンター攻撃</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1400"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1400"/>
+            <a:t>ジャスト回避時にスローモーション</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1024" name="直線矢印コネクタ 1023">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4BD08BD6-CFBD-4F4C-B714-B088BF4C1EF7}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="0"/>
+          <a:endCxn id="59" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="1524001" y="2052638"/>
+          <a:ext cx="2352674" cy="1023937"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>838201</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>2200275</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1028" name="直線矢印コネクタ 1027">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B450B8E5-B63A-488F-ABE2-F6348587EB66}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="1"/>
+          <a:endCxn id="2" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="1524001" y="2052638"/>
+          <a:ext cx="2352674" cy="1023937"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1070" name="直線矢印コネクタ 1069">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{77846C3D-531B-4321-8DF8-7305512645EC}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="59" idx="3"/>
+          <a:endCxn id="3" idx="0"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="7896225" y="2052638"/>
+          <a:ext cx="2376488" cy="795337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>2886075</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>147638</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>328613</xdr:colOff>
+      <xdr:row>11</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="1073" name="直線矢印コネクタ 1072">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{ACFF0E37-2896-4068-9B7A-18A1DF83A970}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="0"/>
+          <a:endCxn id="59" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="7896225" y="2052638"/>
+          <a:ext cx="2376488" cy="795337"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3019426</xdr:colOff>
+      <xdr:row>23</xdr:row>
+      <xdr:rowOff>228600</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457326</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>219075</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="40" name="正方形/長方形 39">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7FDE6714-03FE-4CFF-9697-E028D500E22B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4695826" y="5705475"/>
+          <a:ext cx="1771650" cy="942975"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1">
+            <a:shade val="15000"/>
+          </a:schemeClr>
+        </a:lnRef>
+        <a:fillRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+            <a:t>空中状態</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1800"/>
+        </a:p>
+        <a:p>
+          <a:pPr algn="l"/>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1800"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457326</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="41" name="直線矢印コネクタ 40">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{24A75B30-EF9E-4AF9-9CF3-48431EDE7301}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="3"/>
+          <a:endCxn id="3" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipV="1">
+          <a:off x="6467476" y="3705225"/>
+          <a:ext cx="2390775" cy="2471738"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1457326</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>3848101</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="46" name="直線矢印コネクタ 45">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{DB805894-AE37-4145-B1C1-BC8B0E9D12A1}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="3" idx="1"/>
+          <a:endCxn id="40" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1">
+          <a:off x="6467476" y="3705225"/>
+          <a:ext cx="2390775" cy="2471738"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3019426</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="49" name="直線矢印コネクタ 48">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E9901245-982D-4CED-B2AF-06BC5B7B4290}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="2" idx="3"/>
+          <a:endCxn id="40" idx="1"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="2409826" y="3548063"/>
+          <a:ext cx="2286000" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>733426</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>214313</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>3019426</xdr:colOff>
+      <xdr:row>25</xdr:row>
+      <xdr:rowOff>223838</xdr:rowOff>
+    </xdr:to>
+    <xdr:cxnSp macro="">
+      <xdr:nvCxnSpPr>
+        <xdr:cNvPr id="52" name="直線矢印コネクタ 51">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6B1F660-F30B-4484-AD29-39BDCC25FC29}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvCxnSpPr>
+          <a:stCxn id="40" idx="1"/>
+          <a:endCxn id="2" idx="3"/>
+        </xdr:cNvCxnSpPr>
+      </xdr:nvCxnSpPr>
+      <xdr:spPr>
+        <a:xfrm flipH="1" flipV="1">
+          <a:off x="2409826" y="3548063"/>
+          <a:ext cx="2286000" cy="2628900"/>
+        </a:xfrm>
+        <a:prstGeom prst="straightConnector1">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:ln w="76200">
+          <a:solidFill>
+            <a:srgbClr val="FF6600"/>
+          </a:solidFill>
+          <a:tailEnd type="triangle"/>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </xdr:style>
+    </xdr:cxnSp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -786,8 +2242,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1BCF8595-D54B-49AB-A881-C80262286D35}">
   <dimension ref="B2:D4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -834,6 +2290,144 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D36572CB-14DE-4D87-B3AD-5C219B31F92A}">
+  <dimension ref="B2:D9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="15.125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="35.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="124.125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="D4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C7" s="1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>19</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DFF076-4EFE-4B3C-9A80-CB292296D670}">
+  <dimension ref="B2:B6"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B13" sqref="B13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="2" max="2" width="66.625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2">
+      <c r="B4" s="1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2">
+      <c r="B5" s="1" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2">
+      <c r="B6" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 

--- a/仕様書.xlsx
+++ b/仕様書.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lovecap\Documents\GitHub\NierGame\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3B8FA23-E64F-4988-B73A-4FBECE0B81FB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{23698029-B359-4A02-B74C-80C36E8AB940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -2389,10 +2389,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{57DFF076-4EFE-4B3C-9A80-CB292296D670}">
-  <dimension ref="B2:B6"/>
+  <dimension ref="B2:B7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B13" sqref="B13"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
@@ -2425,6 +2425,9 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="2:2">
+      <c r="B7" s="1"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2432,27 +2435,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
-    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-  </documentManagement>
-</p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="ドキュメント" ma:contentTypeID="0x0101009C7952A5A25B2543AB99BC9B879A46ED" ma:contentTypeVersion="16" ma:contentTypeDescription="新しいドキュメントを作成します。" ma:contentTypeScope="" ma:versionID="18ce886227b4f7d0c1a56646945dc47e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xmlns:ns3="04574505-c322-4981-8ebb-5d25af8d4de8" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="e5be0a050d98fc17aa9c3986a154fc28" ns2:_="" ns3:_="">
     <xsd:import namespace="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
@@ -2695,26 +2677,28 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
-    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <TaxCatchAll xmlns="04574505-c322-4981-8ebb-5d25af8d4de8" xsi:nil="true"/>
+    <_x8a73__x7d30_ xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8" xsi:nil="true"/>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+  </documentManagement>
+</p:properties>
 </file>
 
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{F472F951-64CD-40D8-896F-068DA14071AC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2731,4 +2715,23 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3BF17534-2B47-4857-AC25-7C99424F8AA0}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E02E9DAB-F6A4-45C4-BAF5-BF43C147BB10}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="04574505-c322-4981-8ebb-5d25af8d4de8"/>
+    <ds:schemaRef ds:uri="098a3c11-7ac2-46ba-89ce-8b2d5c9f76f8"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>